--- a/modelos/Resultados Experimentos_.xlsx
+++ b/modelos/Resultados Experimentos_.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9146DE-3977-44C5-8588-5664BF7B9D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE3578E-723C-44F1-A1DD-86E152AB28F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t>N°</t>
   </si>
@@ -681,6 +681,38 @@
   </si>
   <si>
     <t>Iván León</t>
+  </si>
+  <si>
+    <t>XGBoostClassifier</t>
+  </si>
+  <si>
+    <t>Best params: colsample_bytree: 0.8498731892350998 learning_rate: 0.05877212386872883 max_depth: 6 min_child_weight: 3 n_estimators: 257 subsample: 0.7668421174743933</t>
+  </si>
+  <si>
+    <t>26/06/2022</t>
+  </si>
+  <si>
+    <t>Proyecto_ML_Base_XGBoost.ipynb</t>
+  </si>
+  <si>
+    <t>• Preprocesamiento del modelo base.
+• Se raliza el ajuste con 3 K-folds y 5 iteraciones, empleando el modelo RandomizedSearchCV</t>
+  </si>
+  <si>
+    <t>Josue Mauricio</t>
+  </si>
+  <si>
+    <t>LogisticRegression</t>
+  </si>
+  <si>
+    <t>Best params: 'C': 100, 'penalty': 'l2', 'solver': 'liblinear'</t>
+  </si>
+  <si>
+    <t>Proyecto_ML_Base_Logisitic_Regression.ipynb</t>
+  </si>
+  <si>
+    <t>• Preprocesamiento del modelo base.
+• Se raliza el ajuste con 10 K-folds y 7500 combinaciones, empleando el modelo GridSearchCV.</t>
   </si>
 </sst>
 </file>
@@ -745,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -782,6 +814,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,25 +1100,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
-    <col min="3" max="3" width="80.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" customWidth="1"/>
-    <col min="7" max="7" width="51.44140625" customWidth="1"/>
-    <col min="8" max="8" width="60.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="80.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="51.42578125" customWidth="1"/>
+    <col min="8" max="8" width="60.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1141,7 +1176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1170,7 +1205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1199,7 +1234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1228,7 +1263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1257,7 +1292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1286,7 +1321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1315,7 +1350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1344,7 +1379,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1373,7 +1408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1402,7 +1437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="199.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="199.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1431,7 +1466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="197.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="197.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1460,7 +1495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1483,7 +1518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="11" customFormat="1" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1509,7 +1544,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1535,47 +1570,95 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    <row r="17" spans="1:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="B17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="9">
+        <v>22</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.63</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="9">
+        <v>22</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>25</v>
       </c>
